--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220406.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220406.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="274">
   <si>
     <t>사이트</t>
   </si>
@@ -1426,6 +1426,12 @@
       <c r="F9" t="s">
         <v>182</v>
       </c>
+      <c r="G9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -2147,6 +2153,12 @@
       </c>
       <c r="F37" t="s">
         <v>196</v>
+      </c>
+      <c r="G37" t="s">
+        <v>239</v>
+      </c>
+      <c r="H37" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:8">

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220406.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220406.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>vibe</t>
+    <t>Vibe</t>
   </si>
   <si>
     <t>2022-04-06</t>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220406.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220406.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="274">
   <si>
     <t>사이트</t>
   </si>
@@ -1193,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3203,22 +3203,22 @@
         <v>9</v>
       </c>
       <c r="C78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E78" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="F78" t="s">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H78" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3229,22 +3229,22 @@
         <v>9</v>
       </c>
       <c r="C79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E79" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="G79" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="H79" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3255,19 +3255,19 @@
         <v>9</v>
       </c>
       <c r="C80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F80" t="s">
-        <v>217</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="H80" t="s">
         <v>260</v>
@@ -3281,19 +3281,19 @@
         <v>9</v>
       </c>
       <c r="C81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c r="G81" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="H81" t="s">
         <v>260</v>
@@ -3307,22 +3307,22 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="F82" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G82" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="H82" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3333,22 +3333,22 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E83" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="F83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G83" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H83" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3359,19 +3359,19 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F84" t="s">
-        <v>220</v>
+        <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H84" t="s">
         <v>260</v>
@@ -3385,19 +3385,19 @@
         <v>9</v>
       </c>
       <c r="C85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E85" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F85" t="s">
-        <v>92</v>
+        <v>221</v>
       </c>
       <c r="G85" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="H85" t="s">
         <v>260</v>
@@ -3411,22 +3411,22 @@
         <v>9</v>
       </c>
       <c r="C86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E86" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="F86" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="H86" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3437,22 +3437,22 @@
         <v>9</v>
       </c>
       <c r="C87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E87" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G87" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="H87" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3463,22 +3463,22 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E88" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>95</v>
+        <v>222</v>
       </c>
       <c r="G88" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="H88" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3489,22 +3489,22 @@
         <v>9</v>
       </c>
       <c r="C89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G89" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="H89" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3515,22 +3515,16 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E90" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>223</v>
-      </c>
-      <c r="G90" t="s">
-        <v>252</v>
-      </c>
-      <c r="H90" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3541,16 +3535,16 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3561,16 +3555,16 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E92" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3581,16 +3575,22 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F93" t="s">
-        <v>226</v>
+        <v>101</v>
+      </c>
+      <c r="G93" t="s">
+        <v>242</v>
+      </c>
+      <c r="H93" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3601,19 +3601,19 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E94" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="F94" t="s">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c r="G94" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H94" t="s">
         <v>260</v>
@@ -3627,19 +3627,19 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E95" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G95" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H95" t="s">
         <v>260</v>
@@ -3653,19 +3653,19 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E96" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="F96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G96" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="H96" t="s">
         <v>260</v>
@@ -3679,19 +3679,19 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="F97" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G97" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H97" t="s">
         <v>260</v>
@@ -3705,19 +3705,19 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E98" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="F98" t="s">
-        <v>230</v>
+        <v>106</v>
       </c>
       <c r="G98" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="H98" t="s">
         <v>260</v>
@@ -3731,19 +3731,19 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F99" t="s">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="G99" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H99" t="s">
         <v>260</v>
@@ -3757,22 +3757,22 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F100" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G100" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="H100" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3783,47 +3783,21 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="F101" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G101" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="H101" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" t="s">
-        <v>129</v>
-      </c>
-      <c r="F102" t="s">
-        <v>233</v>
-      </c>
-      <c r="G102" t="s">
-        <v>250</v>
-      </c>
-      <c r="H102" t="s">
         <v>260</v>
       </c>
     </row>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220406.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220406.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="273">
   <si>
     <t>사이트</t>
   </si>
@@ -757,7 +757,7 @@
     <t>EDAM</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>WM</t>
@@ -794,9 +794,6 @@
   </si>
   <si>
     <t>레시피뮤직</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>FEELGHOOD music</t>
@@ -1274,7 +1271,7 @@
         <v>235</v>
       </c>
       <c r="H3" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1326,7 +1323,7 @@
         <v>237</v>
       </c>
       <c r="H5" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1378,7 +1375,7 @@
         <v>238</v>
       </c>
       <c r="H7" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1404,7 +1401,7 @@
         <v>239</v>
       </c>
       <c r="H8" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1430,7 +1427,7 @@
         <v>239</v>
       </c>
       <c r="H9" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1456,7 +1453,7 @@
         <v>240</v>
       </c>
       <c r="H10" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1508,7 +1505,7 @@
         <v>242</v>
       </c>
       <c r="H12" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1534,7 +1531,7 @@
         <v>243</v>
       </c>
       <c r="H13" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1560,7 +1557,7 @@
         <v>244</v>
       </c>
       <c r="H14" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1586,7 +1583,7 @@
         <v>245</v>
       </c>
       <c r="H15" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1612,7 +1609,7 @@
         <v>246</v>
       </c>
       <c r="H16" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1638,7 +1635,7 @@
         <v>246</v>
       </c>
       <c r="H17" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1664,7 +1661,7 @@
         <v>247</v>
       </c>
       <c r="H18" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1690,7 +1687,7 @@
         <v>248</v>
       </c>
       <c r="H19" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1716,7 +1713,7 @@
         <v>249</v>
       </c>
       <c r="H20" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1768,7 +1765,7 @@
         <v>250</v>
       </c>
       <c r="H22" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1794,7 +1791,7 @@
         <v>242</v>
       </c>
       <c r="H23" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1820,7 +1817,7 @@
         <v>246</v>
       </c>
       <c r="H24" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1846,7 +1843,7 @@
         <v>242</v>
       </c>
       <c r="H25" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1872,7 +1869,7 @@
         <v>240</v>
       </c>
       <c r="H26" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1898,7 +1895,7 @@
         <v>251</v>
       </c>
       <c r="H27" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2028,7 +2025,7 @@
         <v>235</v>
       </c>
       <c r="H32" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2106,7 +2103,7 @@
         <v>254</v>
       </c>
       <c r="H35" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2158,7 +2155,7 @@
         <v>239</v>
       </c>
       <c r="H37" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2210,7 +2207,7 @@
         <v>255</v>
       </c>
       <c r="H39" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2288,7 +2285,7 @@
         <v>256</v>
       </c>
       <c r="H42" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2314,7 +2311,7 @@
         <v>257</v>
       </c>
       <c r="H43" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2366,7 +2363,7 @@
         <v>246</v>
       </c>
       <c r="H45" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2392,7 +2389,7 @@
         <v>258</v>
       </c>
       <c r="H46" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2418,7 +2415,7 @@
         <v>259</v>
       </c>
       <c r="H47" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2441,10 +2438,10 @@
         <v>145</v>
       </c>
       <c r="G48" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="H48" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2467,10 +2464,10 @@
         <v>202</v>
       </c>
       <c r="G49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H49" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2496,7 +2493,7 @@
         <v>246</v>
       </c>
       <c r="H50" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2522,7 +2519,7 @@
         <v>246</v>
       </c>
       <c r="H51" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2548,7 +2545,7 @@
         <v>247</v>
       </c>
       <c r="H52" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2594,7 +2591,7 @@
         <v>245</v>
       </c>
       <c r="H54" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2643,10 +2640,10 @@
         <v>206</v>
       </c>
       <c r="G56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H56" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2672,7 +2669,7 @@
         <v>247</v>
       </c>
       <c r="H57" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2695,10 +2692,10 @@
         <v>207</v>
       </c>
       <c r="G58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2724,7 +2721,7 @@
         <v>242</v>
       </c>
       <c r="H59" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2750,7 +2747,7 @@
         <v>246</v>
       </c>
       <c r="H60" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2854,7 +2851,7 @@
         <v>248</v>
       </c>
       <c r="H64" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2877,10 +2874,10 @@
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H65" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2906,7 +2903,7 @@
         <v>247</v>
       </c>
       <c r="H66" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2929,10 +2926,10 @@
         <v>211</v>
       </c>
       <c r="G67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H67" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2955,10 +2952,10 @@
         <v>76</v>
       </c>
       <c r="G68" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H68" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2984,7 +2981,7 @@
         <v>242</v>
       </c>
       <c r="H69" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3007,10 +3004,10 @@
         <v>212</v>
       </c>
       <c r="G70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H70" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3036,7 +3033,7 @@
         <v>246</v>
       </c>
       <c r="H71" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3062,7 +3059,7 @@
         <v>247</v>
       </c>
       <c r="H72" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3085,10 +3082,10 @@
         <v>81</v>
       </c>
       <c r="G73" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H73" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3111,10 +3108,10 @@
         <v>213</v>
       </c>
       <c r="G74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H74" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3137,10 +3134,10 @@
         <v>214</v>
       </c>
       <c r="G75" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H75" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3166,7 +3163,7 @@
         <v>246</v>
       </c>
       <c r="H76" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3192,7 +3189,7 @@
         <v>240</v>
       </c>
       <c r="H77" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3241,10 +3238,10 @@
         <v>217</v>
       </c>
       <c r="G79" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H79" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3270,7 +3267,7 @@
         <v>248</v>
       </c>
       <c r="H80" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3293,10 +3290,10 @@
         <v>218</v>
       </c>
       <c r="G81" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H81" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3348,7 +3345,7 @@
         <v>255</v>
       </c>
       <c r="H83" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3374,7 +3371,7 @@
         <v>259</v>
       </c>
       <c r="H84" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3400,7 +3397,7 @@
         <v>247</v>
       </c>
       <c r="H85" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3452,7 +3449,7 @@
         <v>242</v>
       </c>
       <c r="H87" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3475,10 +3472,10 @@
         <v>222</v>
       </c>
       <c r="G88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3590,7 +3587,7 @@
         <v>242</v>
       </c>
       <c r="H93" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3616,7 +3613,7 @@
         <v>238</v>
       </c>
       <c r="H94" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3642,7 +3639,7 @@
         <v>249</v>
       </c>
       <c r="H95" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3665,10 +3662,10 @@
         <v>229</v>
       </c>
       <c r="G96" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="H96" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3691,10 +3688,10 @@
         <v>230</v>
       </c>
       <c r="G97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H97" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3720,7 +3717,7 @@
         <v>242</v>
       </c>
       <c r="H98" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3746,7 +3743,7 @@
         <v>247</v>
       </c>
       <c r="H99" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3798,7 +3795,7 @@
         <v>250</v>
       </c>
       <c r="H101" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
